--- a/output/hello-world.xlsx
+++ b/output/hello-world.xlsx
@@ -9,7 +9,7 @@
     </w:p>
     <w:p>
       <w:r>
-        <w:t>Date: 2025-03-18 16:21:57</w:t>
+        <w:t>Date: 2025-03-19 16:33:54</w:t>
       </w:r>
     </w:p>
     <w:p>
